--- a/Team-Data/2007-08/3-13-2007-08.xlsx
+++ b/Team-Data/2007-08/3-13-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-3</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>20</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>10.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1120,10 +1187,10 @@
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ4" t="n">
         <v>19</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>20</v>
@@ -1302,7 +1369,7 @@
         <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1350,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="AX5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
@@ -1359,7 +1426,7 @@
         <v>21</v>
       </c>
       <c r="BA5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB5" t="n">
         <v>19</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" t="n">
         <v>37</v>
       </c>
       <c r="F6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.569</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
@@ -1418,13 +1485,13 @@
         <v>0.44</v>
       </c>
       <c r="L6" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M6" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O6" t="n">
         <v>18.2</v>
@@ -1442,7 +1509,7 @@
         <v>31.1</v>
       </c>
       <c r="T6" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="U6" t="n">
         <v>19.8</v>
@@ -1451,13 +1518,13 @@
         <v>14.2</v>
       </c>
       <c r="W6" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X6" t="n">
         <v>4.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z6" t="n">
         <v>21.5</v>
@@ -1469,10 +1536,10 @@
         <v>97.40000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1502,7 +1569,7 @@
         <v>10</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
         <v>20</v>
@@ -1520,7 +1587,7 @@
         <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU6" t="n">
         <v>25</v>
@@ -1538,10 +1605,10 @@
         <v>13</v>
       </c>
       <c r="AZ6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
         <v>8</v>
@@ -1669,13 +1736,13 @@
         <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL7" t="n">
         <v>19</v>
@@ -1723,7 +1790,7 @@
         <v>22</v>
       </c>
       <c r="BA7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1848,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2066,7 +2133,7 @@
         <v>26</v>
       </c>
       <c r="AT9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU9" t="n">
         <v>9</v>
@@ -2087,7 +2154,7 @@
         <v>16</v>
       </c>
       <c r="BA9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" t="n">
         <v>40</v>
       </c>
       <c r="F10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" t="n">
-        <v>0.625</v>
+        <v>0.635</v>
       </c>
       <c r="H10" t="n">
         <v>48.2</v>
@@ -2140,10 +2207,10 @@
         <v>41.4</v>
       </c>
       <c r="J10" t="n">
-        <v>89.5</v>
+        <v>89.3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L10" t="n">
         <v>9.5</v>
@@ -2152,7 +2219,7 @@
         <v>27.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O10" t="n">
         <v>18.7</v>
@@ -2164,49 +2231,49 @@
         <v>0.75</v>
       </c>
       <c r="R10" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S10" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T10" t="n">
         <v>42.3</v>
       </c>
       <c r="U10" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V10" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W10" t="n">
         <v>9.1</v>
       </c>
       <c r="X10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z10" t="n">
         <v>23.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>111</v>
+        <v>110.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2233,7 +2300,7 @@
         <v>17</v>
       </c>
       <c r="AO10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
         <v>17</v>
@@ -2248,7 +2315,7 @@
         <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2263,13 +2330,13 @@
         <v>19</v>
       </c>
       <c r="AY10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
       </c>
       <c r="BA10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>5.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
         <v>4</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>22</v>
@@ -2576,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
         <v>9</v>
@@ -2633,13 +2700,13 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2809,7 +2876,7 @@
         <v>16</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ13" t="n">
         <v>17</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2976,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-7</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>28</v>
@@ -3131,7 +3198,7 @@
         <v>14</v>
       </c>
       <c r="AK15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL15" t="n">
         <v>8</v>
@@ -3146,7 +3213,7 @@
         <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ15" t="n">
         <v>21</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3328,7 +3395,7 @@
         <v>23</v>
       </c>
       <c r="AP16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ16" t="n">
         <v>28</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3540,7 +3607,7 @@
         <v>21</v>
       </c>
       <c r="AZ17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA17" t="n">
         <v>18</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3886,7 +3953,7 @@
         <v>13</v>
       </c>
       <c r="AT19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU19" t="n">
         <v>5</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
         <v>6</v>
@@ -4041,7 +4108,7 @@
         <v>7</v>
       </c>
       <c r="AK20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
         <v>5</v>
@@ -4083,7 +4150,7 @@
         <v>28</v>
       </c>
       <c r="AY20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ20" t="n">
         <v>1</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -4387,10 +4454,10 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG22" t="n">
         <v>10</v>
@@ -4444,7 +4511,7 @@
         <v>26</v>
       </c>
       <c r="AX22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY22" t="n">
         <v>7</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -4566,10 +4633,10 @@
         <v>0.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF23" t="n">
         <v>17</v>
@@ -4578,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
         <v>10</v>
@@ -4614,7 +4681,7 @@
         <v>29</v>
       </c>
       <c r="AT23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -4670,52 +4737,52 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F24" t="n">
         <v>22</v>
       </c>
       <c r="G24" t="n">
-        <v>0.662</v>
+        <v>0.656</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="J24" t="n">
         <v>83.59999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.495</v>
+        <v>0.494</v>
       </c>
       <c r="L24" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="M24" t="n">
         <v>22.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.384</v>
+        <v>0.382</v>
       </c>
       <c r="O24" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P24" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.79</v>
+        <v>0.791</v>
       </c>
       <c r="R24" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="S24" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T24" t="n">
         <v>41</v>
@@ -4724,7 +4791,7 @@
         <v>26.7</v>
       </c>
       <c r="V24" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W24" t="n">
         <v>6.7</v>
@@ -4736,22 +4803,22 @@
         <v>3.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.8</v>
+        <v>109.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF24" t="n">
         <v>7</v>
@@ -4760,7 +4827,7 @@
         <v>7</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
         <v>2</v>
@@ -4784,7 +4851,7 @@
         <v>17</v>
       </c>
       <c r="AP24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ24" t="n">
         <v>5</v>
@@ -4814,16 +4881,16 @@
         <v>2</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB24" t="n">
         <v>2</v>
       </c>
       <c r="BC24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" t="n">
         <v>34</v>
       </c>
       <c r="F25" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" t="n">
-        <v>0.515</v>
+        <v>0.523</v>
       </c>
       <c r="H25" t="n">
         <v>48.7</v>
       </c>
       <c r="I25" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J25" t="n">
         <v>79.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L25" t="n">
         <v>6.4</v>
@@ -4882,7 +4949,7 @@
         <v>17.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O25" t="n">
         <v>17.9</v>
@@ -4903,10 +4970,10 @@
         <v>40.5</v>
       </c>
       <c r="U25" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V25" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="W25" t="n">
         <v>5.6</v>
@@ -4918,19 +4985,19 @@
         <v>3.7</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="n">
         <v>20.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4945,13 +5012,13 @@
         <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ25" t="n">
         <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="n">
         <v>16</v>
@@ -4966,7 +5033,7 @@
         <v>22</v>
       </c>
       <c r="AP25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
         <v>12</v>
@@ -4975,7 +5042,7 @@
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT25" t="n">
         <v>26</v>
@@ -4999,7 +5066,7 @@
         <v>9</v>
       </c>
       <c r="BA25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB25" t="n">
         <v>25</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" t="n">
         <v>35</v>
       </c>
       <c r="G26" t="n">
-        <v>0.453</v>
+        <v>0.444</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5061,28 +5128,28 @@
         <v>6.3</v>
       </c>
       <c r="M26" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.372</v>
+        <v>0.375</v>
       </c>
       <c r="O26" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="P26" t="n">
         <v>27.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.794</v>
+        <v>0.793</v>
       </c>
       <c r="R26" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S26" t="n">
         <v>29.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U26" t="n">
         <v>19</v>
@@ -5100,19 +5167,19 @@
         <v>5.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA26" t="n">
         <v>23.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.2</v>
+        <v>-2.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,10 +5191,10 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
         <v>20</v>
@@ -5142,7 +5209,7 @@
         <v>19</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5157,7 +5224,7 @@
         <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT26" t="n">
         <v>28</v>
@@ -5172,7 +5239,7 @@
         <v>7</v>
       </c>
       <c r="AX26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY26" t="n">
         <v>27</v>
@@ -5187,7 +5254,7 @@
         <v>8</v>
       </c>
       <c r="BC26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>4.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE27" t="n">
         <v>4</v>
@@ -5309,7 +5376,7 @@
         <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ27" t="n">
         <v>27</v>
@@ -5324,7 +5391,7 @@
         <v>7</v>
       </c>
       <c r="AN27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO27" t="n">
         <v>26</v>
@@ -5363,7 +5430,7 @@
         <v>2</v>
       </c>
       <c r="BA27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB27" t="n">
         <v>24</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-8.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5670,13 +5737,13 @@
         <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
       </c>
       <c r="AJ29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK29" t="n">
         <v>6</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -5870,7 +5937,7 @@
         <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F31" t="n">
         <v>32</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.492</v>
       </c>
       <c r="H31" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I31" t="n">
         <v>36.2</v>
       </c>
       <c r="J31" t="n">
-        <v>81.8</v>
+        <v>82</v>
       </c>
       <c r="K31" t="n">
         <v>0.442</v>
@@ -5980,13 +6047,13 @@
         <v>19.3</v>
       </c>
       <c r="P31" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.79</v>
+        <v>0.792</v>
       </c>
       <c r="R31" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S31" t="n">
         <v>29.7</v>
@@ -6004,31 +6071,31 @@
         <v>7.9</v>
       </c>
       <c r="X31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y31" t="n">
         <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG31" t="n">
         <v>16</v>
@@ -6040,7 +6107,7 @@
         <v>20</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
         <v>24</v>
@@ -6058,7 +6125,7 @@
         <v>11</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ31" t="n">
         <v>4</v>
@@ -6070,7 +6137,7 @@
         <v>23</v>
       </c>
       <c r="AT31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU31" t="n">
         <v>28</v>
@@ -6079,10 +6146,10 @@
         <v>8</v>
       </c>
       <c r="AW31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX31" t="n">
         <v>8</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>9</v>
       </c>
       <c r="AY31" t="n">
         <v>9</v>
@@ -6091,7 +6158,7 @@
         <v>5</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-13-2007-08</t>
+          <t>2008-03-13</t>
         </is>
       </c>
     </row>
